--- a/medicine/Mort/Décès_en_1906/Décès_en_1906.xlsx
+++ b/medicine/Mort/Décès_en_1906/Décès_en_1906.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>19 janvier : Bartolomé Mitre, militaire, homme politique et historien argentin (° 26 juin 1821).
 29 janvier : Christian IX, roi du Danemark (° 8 avril 1818).</t>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>5 février : Pierre Grivolas, peintre français (° 2 septembre 1823).
 10 février : Adolphe Perraud, cardinal français, oratorien, évêque d'Autun (° 7 février 1828).
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars : José María de Pereda, écrivain espagnol  (° 6 février 1833).
 10 mars : Eugen Richter, homme politique et journaliste libéral allemand (° 30 juillet 1838).
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>19 avril : Pierre Curie, physicien français (° 16 mai 1859).
 20 avril : Auguste de La Brély, peintre français (° 26 février 1838).
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,7 +687,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>23 mai : Henrik Ibsen, dramaturge norvégien (° 20 mars 1828).
 30 mai : William Hurlstone, compositeur britannique (° 7 janvier 1876).</t>
@@ -680,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,7 +720,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2 juin : Pieter de Josselin de Jong, peintre, graveur, aquarelliste et illustrateur néerlandais (° 2 août 1861).
 7 juin : Jules-Antoine Legrain, peintre français (° 9 janvier 1834).
@@ -714,7 +738,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -732,7 +756,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>3 juillet : Gédéon Baril, peintre, écrivain, dessinateur et caricaturiste français (° 17 juillet 1832).
 5 juillet : Jules Breton, peintre et poète français (° 1er mai 1827).
@@ -752,7 +778,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -770,7 +796,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>11 août : Henri Laurent-Desrousseaux, peintre, céramiste et illustrateur français (° 15 juillet 1862).
 17 août : Gustave Henry Mosler, peintre américain (° 16 juin 1875).
@@ -786,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -804,7 +832,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>4 septembre : Maximilian Messmacher, architecte et peintre russe d'ascendance allemande (° 21 mars 1842).
 5 septembre : Ludwig Boltzmann, physicien autrichien (° 20 février 1844).
@@ -818,7 +848,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,7 +866,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1er octobre : Christian Mali, peintre allemand (° 6 octobre 1832).
 2 octobre : Julien Déjardin, peintre paysagiste français (° 23 juillet 1857).
@@ -857,7 +889,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -875,7 +907,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>5 novembre : Choi Ik-hyun, homme politique, écrivain et philosophe néoconfucianiste coréen (° 5 décembre 1833).
 11 novembre : Hugo d'Alesi, peintre et graphiste publicitaire français (° 10 février 1849).
@@ -892,7 +926,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -910,7 +944,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2 décembre : Louis Victor Alquier, vice-amiral, inspecteur général de la Marine (° 2 décembre 1831).
 9 décembre : Ferdinand Brunetière, écrivain et critique littéraire (° 19 juillet 1849).
@@ -927,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1906</t>
+          <t>Décès_en_1906</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -945,7 +981,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Henri Caspers, pianiste et compositeur français (° 2 octobre 1825).
 Victor Chavet, peintre français (° 21 juillet 1822).
